--- a/data/base_empleados.xlsx
+++ b/data/base_empleados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\bakcend-gemi-cha\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F9943-5510-46A1-944F-9222DB3A9B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D4473-AE99-4EC2-A7D4-3382016CC976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/base_empleados.xlsx
+++ b/data/base_empleados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\bakcend-gemi-cha\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D4473-AE99-4EC2-A7D4-3382016CC976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A77190E-A128-44F3-B7C1-B762BF281E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>cedula</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>baezaospinodavidsantiago@gmail.com</t>
+  </si>
+  <si>
+    <t>yais</t>
+  </si>
+  <si>
+    <t>PASH</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +511,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>39017565</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{BEC09681-D685-42D4-93BD-0EF68AE9B978}"/>

--- a/data/base_empleados.xlsx
+++ b/data/base_empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\bakcend-gemi-cha\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A77190E-A128-44F3-B7C1-B762BF281E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C870FE7-716A-4710-9BBA-AD034D9D835A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>cedula</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>PASH</t>
+  </si>
+  <si>
+    <t>alveiro</t>
+  </si>
+  <si>
+    <t>ALVER@GMAIL.COM</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,9 +531,24 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>39017568</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{BEC09681-D685-42D4-93BD-0EF68AE9B978}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{842EEEC9-40D9-430C-ABE5-0C07D5D0B911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/base_empleados.xlsx
+++ b/data/base_empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\bakcend-gemi-cha\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C870FE7-716A-4710-9BBA-AD034D9D835A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEAB620-6DFE-4405-A482-C0B988EEAADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/base_empleados.xlsx
+++ b/data/base_empleados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\bakcend-gemi-cha\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEAB620-6DFE-4405-A482-C0B988EEAADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F068917F-E706-4300-BF0C-4FE139184744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="510" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>cedula</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>ALVER@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>SURA</t>
+  </si>
+  <si>
+    <t>COMPENSAR</t>
+  </si>
+  <si>
+    <t>SALUD TOTAL</t>
   </si>
 </sst>
 </file>
@@ -110,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,17 +148,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -449,19 +478,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,27 +499,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1085043374</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>3208757593</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>654321</v>
       </c>
@@ -497,13 +539,19 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>3208757593</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>789012</v>
       </c>
@@ -511,13 +559,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>3208757593</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>39017565</v>
       </c>
@@ -525,30 +579,42 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>3208757593</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>39017568</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>3208757593</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{BEC09681-D685-42D4-93BD-0EF68AE9B978}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{842EEEC9-40D9-430C-ABE5-0C07D5D0B911}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BEC09681-D685-42D4-93BD-0EF68AE9B978}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{842EEEC9-40D9-430C-ABE5-0C07D5D0B911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/base_empleados.xlsx
+++ b/data/base_empleados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\bakcend-gemi-cha\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F068917F-E706-4300-BF0C-4FE139184744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EB9E12-7C61-47C7-A6FB-E5EDBD70E947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="510" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>cedula</t>
   </si>
@@ -86,13 +86,22 @@
   </si>
   <si>
     <t>SALUD TOTAL</t>
+  </si>
+  <si>
+    <t>baezaospinolauravalentina@gmail.com</t>
+  </si>
+  <si>
+    <t>PALASO</t>
+  </si>
+  <si>
+    <t>valentina baeza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +124,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,15 +178,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -478,20 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1085043374</v>
       </c>
@@ -531,7 +546,7 @@
         <v>3208757593</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>654321</v>
       </c>
@@ -551,7 +566,7 @@
         <v>3208757593</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>789012</v>
       </c>
@@ -571,7 +586,7 @@
         <v>3208757593</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>39017565</v>
       </c>
@@ -591,7 +606,7 @@
         <v>3208757593</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>39017568</v>
       </c>
@@ -609,6 +624,20 @@
       </c>
       <c r="F6">
         <v>3208757593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>123456789</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/base_empleados.xlsx
+++ b/data/base_empleados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\bakcend-gemi-cha\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EB9E12-7C61-47C7-A6FB-E5EDBD70E947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E987E178-FBA2-4C1F-9A39-7CA885417292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,14 +496,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -516,14 +516,14 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -536,14 +536,14 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>3208757593</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2">
-        <v>3208757593</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -556,14 +556,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>3208757593</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3">
-        <v>3208757593</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -576,14 +576,14 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>3208757593</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4">
-        <v>3208757593</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -596,14 +596,14 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>3208757593</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5">
-        <v>3208757593</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -616,14 +616,14 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>3208757593</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
-      </c>
-      <c r="F6">
-        <v>3208757593</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -636,7 +636,7 @@
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
